--- a/Phenopacket.xlsx
+++ b/Phenopacket.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$136</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5444" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4935" uniqueCount="476">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -183,7 +183,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -215,6 +215,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>Composition.implicitRules</t>
   </si>
   <si>
@@ -337,6 +341,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Composition.modifierExtension</t>
   </si>
   <si>
@@ -406,7 +414,7 @@
     <t>The workflow/clinical status of the composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -467,10 +475,6 @@
     <t>Composition.type.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -853,7 +857,7 @@
     <t>Codes specifying the level of confidentiality of the composition.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|4.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ConfidentialityClassification|2014-03-26</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -881,10 +885,6 @@
     <t>Identifies responsibility for the accuracy of the composition content.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>.participation[typeCode="AUTHEN"].role[classCode="ASSIGNED"]</t>
   </si>
   <si>
@@ -932,7 +932,7 @@
     <t>The way in which a person authenticated a composition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/composition-attestation-mode|4.0.1</t>
   </si>
   <si>
     <t>unique(./modeCode)</t>
@@ -1057,7 +1057,7 @@
     <t>The type of relationship between documents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/document-relationship-type|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship.typeCode</t>
@@ -1193,8 +1193,8 @@
     <t>closed</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
+    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
@@ -1314,7 +1314,7 @@
     <t>The processing mode that applies to this section.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
   </si>
   <si>
     <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
@@ -1403,29 +1403,6 @@
   </si>
   <si>
     <t>.component.section</t>
-  </si>
-  <si>
-    <t>encounters</t>
-  </si>
-  <si>
-    <t>Encounters</t>
-  </si>
-  <si>
-    <t>This is a list of interactions between the subject and a healthcare provider.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://ga4gh.org/fhir/phenopackets/CodeSystem/section-type"/&gt;
-    &lt;version value="0.1.0"/&gt;
-    &lt;code value="encounters"/&gt;
-    &lt;display value="Encounters"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ga4gh.org/fhir/phenopackets/StructureDefinition/Encounter-Phenopackets) &lt;&lt;bundled&gt;&gt;
-</t>
   </si>
   <si>
     <t>phenotypicFeatures</t>
@@ -1451,29 +1428,6 @@
 </t>
   </si>
   <si>
-    <t>observations</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>This is a list of observations related to the patient. Includes phenotypic features.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://ga4gh.org/fhir/phenopackets/CodeSystem/section-type"/&gt;
-    &lt;version value="0.1.0"/&gt;
-    &lt;code value="observations"/&gt;
-    &lt;display value="Observations"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Observation) &lt;&lt;bundled&gt;&gt;
-</t>
-  </si>
-  <si>
     <t>biosamples</t>
   </si>
   <si>
@@ -1500,26 +1454,26 @@
     <t>Samples that have been derived from the patient who is the subject of the Phenopacket.</t>
   </si>
   <si>
-    <t>genomicsReports</t>
-  </si>
-  <si>
-    <t>Genomics Reports</t>
-  </si>
-  <si>
-    <t>Genomics reports about the patient who is the subject of the Phenopacket.</t>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>Variants</t>
+  </si>
+  <si>
+    <t>Variants identified in the proband.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://ga4gh.org/fhir/phenopackets/CodeSystem/section-type"/&gt;
     &lt;version value="0.1.0"/&gt;
-    &lt;code value="genomics-reports"/&gt;
-    &lt;display value="Genomics Reports"/&gt;
+    &lt;code value="variants"/&gt;
+    &lt;display value="Variants"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ga4gh.org/fhir/phenopackets/StructureDefinition/GenomicsReport) &lt;&lt;bundled&gt;&gt;
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/genomics-reporting/StructureDefinition/variant) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
   <si>
@@ -1543,6 +1497,29 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://ga4gh.org/fhir/phenopackets/StructureDefinition/Disease) &lt;&lt;bundled&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>htsFiles</t>
+  </si>
+  <si>
+    <t>HTS Files</t>
+  </si>
+  <si>
+    <t>VCF or other high-throughput sequencing files.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://ga4gh.org/fhir/phenopackets/CodeSystem/section-type"/&gt;
+    &lt;version value="0.1.0"/&gt;
+    &lt;code value="hts-files"/&gt;
+    &lt;display value="HTS Files"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ga4gh.org/fhir/phenopackets/StructureDefinition/HtsFile) &lt;&lt;bundled&gt;&gt;
 </t>
   </si>
 </sst>
@@ -1692,7 +1669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN150"/>
+  <dimension ref="A1:AN136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1725,7 +1702,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="67.21875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.65234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="79.13671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
@@ -2187,7 +2164,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>41</v>
@@ -2207,7 +2184,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2230,16 +2207,16 @@
         <v>54</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2289,7 +2266,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -2301,7 +2278,7 @@
         <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>41</v>
@@ -2321,7 +2298,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2344,16 +2321,16 @@
         <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2379,13 +2356,13 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>41</v>
@@ -2403,7 +2380,7 @@
         <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>42</v>
@@ -2415,7 +2392,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>41</v>
@@ -2435,11 +2412,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2458,16 +2435,16 @@
         <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2517,7 +2494,7 @@
         <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>42</v>
@@ -2529,13 +2506,13 @@
         <v>41</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -2549,11 +2526,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2572,16 +2549,16 @@
         <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2631,7 +2608,7 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
@@ -2649,7 +2626,7 @@
         <v>41</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>41</v>
@@ -2663,11 +2640,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2686,16 +2663,16 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2745,7 +2722,7 @@
         <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
@@ -2757,13 +2734,13 @@
         <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2777,11 +2754,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2800,19 +2777,19 @@
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>41</v>
@@ -2861,7 +2838,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2873,13 +2850,13 @@
         <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
@@ -2893,7 +2870,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2916,16 +2893,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2975,7 +2952,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
@@ -2987,27 +2964,27 @@
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3030,19 +3007,19 @@
         <v>54</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -3067,13 +3044,13 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
@@ -3091,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>53</v>
@@ -3103,27 +3080,27 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3146,19 +3123,19 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>41</v>
@@ -3183,13 +3160,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -3207,7 +3184,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -3219,27 +3196,27 @@
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3262,13 +3239,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3319,7 +3296,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -3337,7 +3314,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -3351,11 +3328,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3374,16 +3351,16 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3421,19 +3398,19 @@
         <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3445,13 +3422,13 @@
         <v>41</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3465,7 +3442,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3488,19 +3465,19 @@
         <v>54</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -3549,7 +3526,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3561,13 +3538,13 @@
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3581,7 +3558,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3604,13 +3581,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3661,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3679,7 +3656,7 @@
         <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>41</v>
@@ -3693,11 +3670,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3716,16 +3693,16 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3763,19 +3740,19 @@
         <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3787,13 +3764,13 @@
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3807,7 +3784,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3830,26 +3807,26 @@
         <v>54</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>41</v>
@@ -3891,7 +3868,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3903,13 +3880,13 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>41</v>
@@ -3923,7 +3900,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3946,16 +3923,16 @@
         <v>54</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4005,7 +3982,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -4017,13 +3994,13 @@
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -4037,7 +4014,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4060,24 +4037,24 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -4119,7 +4096,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -4131,13 +4108,13 @@
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -4151,7 +4128,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4174,17 +4151,17 @@
         <v>54</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -4233,7 +4210,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4245,13 +4222,13 @@
         <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -4265,7 +4242,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4288,19 +4265,19 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -4349,7 +4326,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -4361,13 +4338,13 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -4381,7 +4358,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4404,19 +4381,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -4465,7 +4442,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4477,13 +4454,13 @@
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4497,7 +4474,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4520,19 +4497,19 @@
         <v>54</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4557,13 +4534,13 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
@@ -4581,7 +4558,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4593,27 +4570,27 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4636,19 +4613,19 @@
         <v>54</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4697,7 +4674,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4709,27 +4686,27 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4752,17 +4729,17 @@
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4811,7 +4788,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4823,27 +4800,27 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4866,19 +4843,19 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4927,7 +4904,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>53</v>
@@ -4939,27 +4916,27 @@
         <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4982,17 +4959,17 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -5041,7 +5018,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>53</v>
@@ -5053,27 +5030,27 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5096,16 +5073,16 @@
         <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5113,7 +5090,7 @@
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>41</v>
@@ -5155,7 +5132,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>53</v>
@@ -5167,19 +5144,19 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5187,7 +5164,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5210,16 +5187,16 @@
         <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5245,13 +5222,13 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -5269,7 +5246,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5281,19 +5258,19 @@
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>41</v>
@@ -5301,7 +5278,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5324,19 +5301,19 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
@@ -5385,7 +5362,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5397,7 +5374,7 @@
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
@@ -5440,13 +5417,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5497,7 +5474,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5515,7 +5492,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5533,7 +5510,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5552,16 +5529,16 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5611,7 +5588,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5623,13 +5600,13 @@
         <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5666,7 +5643,7 @@
         <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>288</v>
@@ -5675,10 +5652,10 @@
         <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5739,13 +5716,13 @@
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5782,7 +5759,7 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>292</v>
@@ -5817,7 +5794,7 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X36" t="s" s="2">
         <v>295</v>
@@ -5853,7 +5830,7 @@
         <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>41</v>
@@ -5896,7 +5873,7 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>300</v>
@@ -5967,7 +5944,7 @@
         <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>41</v>
@@ -6081,7 +6058,7 @@
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
@@ -6197,7 +6174,7 @@
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -6240,7 +6217,7 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>323</v>
@@ -6311,7 +6288,7 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
@@ -6354,13 +6331,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6411,7 +6388,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6429,7 +6406,7 @@
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -6447,7 +6424,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6466,16 +6443,16 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6525,7 +6502,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6537,13 +6514,13 @@
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6580,7 +6557,7 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>288</v>
@@ -6589,10 +6566,10 @@
         <v>289</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6653,13 +6630,13 @@
         <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6696,7 +6673,7 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>333</v>
@@ -6731,7 +6708,7 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X44" t="s" s="2">
         <v>336</v>
@@ -6767,7 +6744,7 @@
         <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>41</v>
@@ -6879,7 +6856,7 @@
         <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>41</v>
@@ -6922,7 +6899,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>349</v>
@@ -6995,7 +6972,7 @@
         <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>41</v>
@@ -7038,13 +7015,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7095,7 +7072,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -7113,7 +7090,7 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -7131,7 +7108,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7150,16 +7127,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7209,7 +7186,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7221,13 +7198,13 @@
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -7264,7 +7241,7 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>288</v>
@@ -7273,10 +7250,10 @@
         <v>289</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7337,13 +7314,13 @@
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
@@ -7380,7 +7357,7 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>360</v>
@@ -7415,7 +7392,7 @@
         <v>41</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X50" t="s" s="2">
         <v>363</v>
@@ -7451,16 +7428,16 @@
         <v>41</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>365</v>
@@ -7563,16 +7540,16 @@
         <v>41</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>370</v>
@@ -7675,7 +7652,7 @@
         <v>41</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>41</v>
@@ -7684,7 +7661,7 @@
         <v>375</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>41</v>
@@ -7718,7 +7695,7 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>377</v>
@@ -7828,13 +7805,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7885,7 +7862,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7903,7 +7880,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -7921,7 +7898,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7940,16 +7917,16 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7999,7 +7976,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -8011,13 +7988,13 @@
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
@@ -8054,7 +8031,7 @@
         <v>54</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>288</v>
@@ -8063,10 +8040,10 @@
         <v>289</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -8127,13 +8104,13 @@
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
@@ -8170,7 +8147,7 @@
         <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>389</v>
@@ -8243,16 +8220,16 @@
         <v>41</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>41</v>
@@ -8286,7 +8263,7 @@
         <v>41</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>394</v>
@@ -8323,7 +8300,7 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>398</v>
@@ -8359,16 +8336,16 @@
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>41</v>
@@ -8402,7 +8379,7 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>401</v>
@@ -8412,7 +8389,7 @@
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>41</v>
@@ -8473,22 +8450,22 @@
         <v>41</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" hidden="true">
@@ -8587,7 +8564,7 @@
         <v>41</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>41</v>
@@ -8630,7 +8607,7 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>409</v>
@@ -8701,7 +8678,7 @@
         <v>412</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>41</v>
@@ -8744,7 +8721,7 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>415</v>
@@ -8781,7 +8758,7 @@
         <v>41</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X62" t="s" s="2">
         <v>419</v>
@@ -8817,7 +8794,7 @@
         <v>41</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>41</v>
@@ -8826,13 +8803,13 @@
         <v>421</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -8860,7 +8837,7 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>423</v>
@@ -8897,7 +8874,7 @@
         <v>41</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
         <v>427</v>
@@ -8933,7 +8910,7 @@
         <v>41</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>41</v>
@@ -8942,7 +8919,7 @@
         <v>429</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>41</v>
@@ -9047,7 +9024,7 @@
         <v>434</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>41</v>
@@ -9090,7 +9067,7 @@
         <v>41</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>438</v>
@@ -9127,7 +9104,7 @@
         <v>41</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
         <v>442</v>
@@ -9163,7 +9140,7 @@
         <v>434</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>41</v>
@@ -9172,7 +9149,7 @@
         <v>444</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>41</v>
@@ -9277,7 +9254,7 @@
         <v>412</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>41</v>
@@ -9322,7 +9299,7 @@
         <v>41</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>377</v>
@@ -9434,13 +9411,13 @@
         <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9491,7 +9468,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9509,7 +9486,7 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
@@ -9527,7 +9504,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9546,16 +9523,16 @@
         <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9605,7 +9582,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9617,13 +9594,13 @@
         <v>41</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
@@ -9660,7 +9637,7 @@
         <v>54</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>288</v>
@@ -9669,10 +9646,10 @@
         <v>289</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>41</v>
@@ -9733,13 +9710,13 @@
         <v>41</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
@@ -9776,7 +9753,7 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>451</v>
@@ -9849,16 +9826,16 @@
         <v>41</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>41</v>
@@ -9892,7 +9869,7 @@
         <v>41</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>394</v>
@@ -9929,7 +9906,7 @@
         <v>41</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>398</v>
@@ -9965,16 +9942,16 @@
         <v>41</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>41</v>
@@ -10008,7 +9985,7 @@
         <v>41</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>401</v>
@@ -10018,7 +9995,7 @@
       </c>
       <c r="M73" s="2"/>
       <c r="N73" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>41</v>
@@ -10079,22 +10056,22 @@
         <v>41</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" hidden="true">
@@ -10193,7 +10170,7 @@
         <v>41</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>41</v>
@@ -10236,7 +10213,7 @@
         <v>41</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>409</v>
@@ -10307,7 +10284,7 @@
         <v>412</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>41</v>
@@ -10350,7 +10327,7 @@
         <v>41</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>415</v>
@@ -10387,7 +10364,7 @@
         <v>41</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X76" t="s" s="2">
         <v>419</v>
@@ -10423,7 +10400,7 @@
         <v>41</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>41</v>
@@ -10432,13 +10409,13 @@
         <v>421</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" hidden="true">
@@ -10466,7 +10443,7 @@
         <v>41</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>423</v>
@@ -10503,7 +10480,7 @@
         <v>41</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X77" t="s" s="2">
         <v>427</v>
@@ -10539,7 +10516,7 @@
         <v>41</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>41</v>
@@ -10548,7 +10525,7 @@
         <v>429</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>41</v>
@@ -10653,7 +10630,7 @@
         <v>434</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>41</v>
@@ -10696,7 +10673,7 @@
         <v>41</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>438</v>
@@ -10733,7 +10710,7 @@
         <v>41</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>442</v>
@@ -10769,7 +10746,7 @@
         <v>434</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>41</v>
@@ -10778,7 +10755,7 @@
         <v>444</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>41</v>
@@ -10883,7 +10860,7 @@
         <v>412</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>41</v>
@@ -10928,7 +10905,7 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>377</v>
@@ -11040,13 +11017,13 @@
         <v>41</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11097,7 +11074,7 @@
         <v>41</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>42</v>
@@ -11115,7 +11092,7 @@
         <v>41</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
@@ -11133,7 +11110,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11152,16 +11129,16 @@
         <v>41</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11211,7 +11188,7 @@
         <v>41</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>42</v>
@@ -11223,13 +11200,13 @@
         <v>41</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
@@ -11266,7 +11243,7 @@
         <v>54</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>288</v>
@@ -11275,10 +11252,10 @@
         <v>289</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>41</v>
@@ -11339,13 +11316,13 @@
         <v>41</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>41</v>
@@ -11382,7 +11359,7 @@
         <v>41</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K85" t="s" s="2">
         <v>456</v>
@@ -11455,16 +11432,16 @@
         <v>41</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>41</v>
@@ -11498,7 +11475,7 @@
         <v>41</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>394</v>
@@ -11535,7 +11512,7 @@
         <v>41</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X86" t="s" s="2">
         <v>398</v>
@@ -11571,16 +11548,16 @@
         <v>41</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>41</v>
@@ -11614,7 +11591,7 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>401</v>
@@ -11624,7 +11601,7 @@
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>41</v>
@@ -11685,22 +11662,22 @@
         <v>41</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" hidden="true">
@@ -11799,7 +11776,7 @@
         <v>41</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>41</v>
@@ -11842,7 +11819,7 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>409</v>
@@ -11913,7 +11890,7 @@
         <v>412</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>41</v>
@@ -11956,7 +11933,7 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>415</v>
@@ -11993,7 +11970,7 @@
         <v>41</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>419</v>
@@ -12029,7 +12006,7 @@
         <v>41</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>41</v>
@@ -12038,13 +12015,13 @@
         <v>421</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -12072,7 +12049,7 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>423</v>
@@ -12109,7 +12086,7 @@
         <v>41</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>427</v>
@@ -12145,7 +12122,7 @@
         <v>41</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>41</v>
@@ -12154,7 +12131,7 @@
         <v>429</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>41</v>
@@ -12191,7 +12168,7 @@
         <v>459</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>432</v>
@@ -12259,7 +12236,7 @@
         <v>434</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>41</v>
@@ -12302,7 +12279,7 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>438</v>
@@ -12339,7 +12316,7 @@
         <v>41</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>442</v>
@@ -12375,7 +12352,7 @@
         <v>434</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>41</v>
@@ -12384,7 +12361,7 @@
         <v>444</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>41</v>
@@ -12489,7 +12466,7 @@
         <v>412</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>41</v>
@@ -12512,7 +12489,7 @@
         <v>376</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>41</v>
@@ -12534,7 +12511,7 @@
         <v>41</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>377</v>
@@ -12646,13 +12623,13 @@
         <v>41</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12703,7 +12680,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>42</v>
@@ -12721,7 +12698,7 @@
         <v>41</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>41</v>
@@ -12739,7 +12716,7 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12758,16 +12735,16 @@
         <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
@@ -12817,7 +12794,7 @@
         <v>41</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>42</v>
@@ -12829,13 +12806,13 @@
         <v>41</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>41</v>
@@ -12872,7 +12849,7 @@
         <v>54</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>288</v>
@@ -12881,10 +12858,10 @@
         <v>289</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>41</v>
@@ -12945,13 +12922,13 @@
         <v>41</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>41</v>
@@ -12988,13 +12965,13 @@
         <v>41</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>391</v>
@@ -13007,7 +12984,7 @@
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>41</v>
@@ -13061,16 +13038,16 @@
         <v>41</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>41</v>
@@ -13104,7 +13081,7 @@
         <v>41</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>394</v>
@@ -13123,7 +13100,7 @@
       </c>
       <c r="P100" s="2"/>
       <c r="Q100" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R100" t="s" s="2">
         <v>41</v>
@@ -13141,7 +13118,7 @@
         <v>41</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>398</v>
@@ -13177,16 +13154,16 @@
         <v>41</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>41</v>
@@ -13220,7 +13197,7 @@
         <v>41</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>401</v>
@@ -13230,7 +13207,7 @@
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>41</v>
@@ -13291,22 +13268,22 @@
         <v>41</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="102" hidden="true">
@@ -13405,7 +13382,7 @@
         <v>41</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>41</v>
@@ -13448,7 +13425,7 @@
         <v>41</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>409</v>
@@ -13519,7 +13496,7 @@
         <v>412</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>41</v>
@@ -13562,7 +13539,7 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>415</v>
@@ -13599,7 +13576,7 @@
         <v>41</v>
       </c>
       <c r="W104" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X104" t="s" s="2">
         <v>419</v>
@@ -13635,7 +13612,7 @@
         <v>41</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>41</v>
@@ -13644,13 +13621,13 @@
         <v>421</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="105" hidden="true">
@@ -13678,7 +13655,7 @@
         <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>423</v>
@@ -13715,7 +13692,7 @@
         <v>41</v>
       </c>
       <c r="W105" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X105" t="s" s="2">
         <v>427</v>
@@ -13751,7 +13728,7 @@
         <v>41</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>41</v>
@@ -13760,7 +13737,7 @@
         <v>429</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>41</v>
@@ -13794,10 +13771,10 @@
         <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L106" t="s" s="2">
         <v>432</v>
@@ -13865,7 +13842,7 @@
         <v>434</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>41</v>
@@ -13908,7 +13885,7 @@
         <v>41</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>438</v>
@@ -13945,7 +13922,7 @@
         <v>41</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>442</v>
@@ -13981,7 +13958,7 @@
         <v>434</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>41</v>
@@ -13990,7 +13967,7 @@
         <v>444</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>41</v>
@@ -14095,7 +14072,7 @@
         <v>412</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>41</v>
@@ -14118,7 +14095,7 @@
         <v>376</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>41</v>
@@ -14140,7 +14117,7 @@
         <v>41</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>377</v>
@@ -14252,13 +14229,13 @@
         <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14309,7 +14286,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>42</v>
@@ -14327,7 +14304,7 @@
         <v>41</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>41</v>
@@ -14345,7 +14322,7 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -14364,16 +14341,16 @@
         <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -14423,7 +14400,7 @@
         <v>41</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>42</v>
@@ -14435,13 +14412,13 @@
         <v>41</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>41</v>
@@ -14478,7 +14455,7 @@
         <v>54</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>288</v>
@@ -14487,10 +14464,10 @@
         <v>289</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>41</v>
@@ -14551,13 +14528,13 @@
         <v>41</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>41</v>
@@ -14594,13 +14571,13 @@
         <v>41</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>391</v>
@@ -14613,7 +14590,7 @@
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="R113" t="s" s="2">
         <v>41</v>
@@ -14667,16 +14644,16 @@
         <v>41</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>41</v>
@@ -14710,7 +14687,7 @@
         <v>41</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>394</v>
@@ -14729,7 +14706,7 @@
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>41</v>
@@ -14747,7 +14724,7 @@
         <v>41</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>398</v>
@@ -14783,16 +14760,16 @@
         <v>41</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>41</v>
@@ -14826,7 +14803,7 @@
         <v>41</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>401</v>
@@ -14836,7 +14813,7 @@
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>41</v>
@@ -14897,22 +14874,22 @@
         <v>41</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116" hidden="true">
@@ -15011,7 +14988,7 @@
         <v>41</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>41</v>
@@ -15054,7 +15031,7 @@
         <v>41</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>409</v>
@@ -15125,7 +15102,7 @@
         <v>412</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>41</v>
@@ -15168,7 +15145,7 @@
         <v>41</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>415</v>
@@ -15205,7 +15182,7 @@
         <v>41</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X118" t="s" s="2">
         <v>419</v>
@@ -15241,7 +15218,7 @@
         <v>41</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>41</v>
@@ -15250,13 +15227,13 @@
         <v>421</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="119" hidden="true">
@@ -15284,7 +15261,7 @@
         <v>41</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K119" t="s" s="2">
         <v>423</v>
@@ -15321,7 +15298,7 @@
         <v>41</v>
       </c>
       <c r="W119" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X119" t="s" s="2">
         <v>427</v>
@@ -15357,7 +15334,7 @@
         <v>41</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>41</v>
@@ -15366,7 +15343,7 @@
         <v>429</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>41</v>
@@ -15400,10 +15377,10 @@
         <v>41</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>432</v>
@@ -15471,7 +15448,7 @@
         <v>434</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>41</v>
@@ -15514,7 +15491,7 @@
         <v>41</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>438</v>
@@ -15551,7 +15528,7 @@
         <v>41</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X121" t="s" s="2">
         <v>442</v>
@@ -15587,7 +15564,7 @@
         <v>434</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>41</v>
@@ -15596,7 +15573,7 @@
         <v>444</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>41</v>
@@ -15701,7 +15678,7 @@
         <v>412</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>41</v>
@@ -15746,7 +15723,7 @@
         <v>41</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>377</v>
@@ -15858,13 +15835,13 @@
         <v>41</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
@@ -15915,7 +15892,7 @@
         <v>41</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>42</v>
@@ -15933,7 +15910,7 @@
         <v>41</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>41</v>
@@ -15951,7 +15928,7 @@
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15970,16 +15947,16 @@
         <v>41</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16029,7 +16006,7 @@
         <v>41</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>42</v>
@@ -16041,13 +16018,13 @@
         <v>41</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>41</v>
@@ -16084,7 +16061,7 @@
         <v>54</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K126" t="s" s="2">
         <v>288</v>
@@ -16093,10 +16070,10 @@
         <v>289</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>41</v>
@@ -16157,13 +16134,13 @@
         <v>41</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>41</v>
@@ -16200,7 +16177,7 @@
         <v>41</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>472</v>
@@ -16273,16 +16250,16 @@
         <v>41</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ127" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>41</v>
@@ -16316,7 +16293,7 @@
         <v>41</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K128" t="s" s="2">
         <v>394</v>
@@ -16353,7 +16330,7 @@
         <v>41</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="X128" t="s" s="2">
         <v>398</v>
@@ -16389,16 +16366,16 @@
         <v>41</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>41</v>
@@ -16432,7 +16409,7 @@
         <v>41</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>401</v>
@@ -16442,7 +16419,7 @@
       </c>
       <c r="M129" s="2"/>
       <c r="N129" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>41</v>
@@ -16503,22 +16480,22 @@
         <v>41</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" hidden="true">
@@ -16617,7 +16594,7 @@
         <v>41</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>41</v>
@@ -16660,7 +16637,7 @@
         <v>41</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>409</v>
@@ -16731,7 +16708,7 @@
         <v>412</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>41</v>
@@ -16774,7 +16751,7 @@
         <v>41</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>415</v>
@@ -16811,7 +16788,7 @@
         <v>41</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>419</v>
@@ -16847,7 +16824,7 @@
         <v>41</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>41</v>
@@ -16856,13 +16833,13 @@
         <v>421</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" hidden="true">
@@ -16890,7 +16867,7 @@
         <v>41</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>423</v>
@@ -16927,7 +16904,7 @@
         <v>41</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>427</v>
@@ -16963,7 +16940,7 @@
         <v>41</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>41</v>
@@ -16972,7 +16949,7 @@
         <v>429</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>41</v>
@@ -17077,7 +17054,7 @@
         <v>434</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>41</v>
@@ -17120,7 +17097,7 @@
         <v>41</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>438</v>
@@ -17157,7 +17134,7 @@
         <v>41</v>
       </c>
       <c r="W135" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X135" t="s" s="2">
         <v>442</v>
@@ -17193,7 +17170,7 @@
         <v>434</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>41</v>
@@ -17202,7 +17179,7 @@
         <v>444</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>41</v>
@@ -17307,7 +17284,7 @@
         <v>412</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>41</v>
@@ -17325,1614 +17302,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" hidden="true">
-      <c r="A137" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B137" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F137" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J137" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="L137" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M137" s="2"/>
-      <c r="N137" s="2"/>
-      <c r="O137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P137" s="2"/>
-      <c r="Q137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE137" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF137" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG137" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI137" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AJ137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK137" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL137" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AM137" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN137" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" hidden="true">
-      <c r="A138" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B138" s="2"/>
-      <c r="C138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F138" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J138" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K138" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P138" s="2"/>
-      <c r="Q138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG138" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM138" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN138" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" hidden="true">
-      <c r="A139" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B139" s="2"/>
-      <c r="C139" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F139" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J139" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K139" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N139" s="2"/>
-      <c r="O139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P139" s="2"/>
-      <c r="Q139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG139" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK139" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN139" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" hidden="true">
-      <c r="A140" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F140" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P140" s="2"/>
-      <c r="Q140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE140" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF140" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG140" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK140" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" hidden="true">
-      <c r="A141" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="B141" s="2"/>
-      <c r="C141" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F141" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J141" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K141" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P141" s="2"/>
-      <c r="Q141" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="R141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE141" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AF141" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG141" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK141" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" hidden="true">
-      <c r="A142" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="B142" s="2"/>
-      <c r="C142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D142" s="2"/>
-      <c r="E142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F142" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J142" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K142" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="L142" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M142" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P142" s="2"/>
-      <c r="Q142" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="R142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W142" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="X142" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Z142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE142" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF142" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG142" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK142" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="143" hidden="true">
-      <c r="A143" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B143" s="2"/>
-      <c r="C143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D143" s="2"/>
-      <c r="E143" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F143" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J143" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="K143" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="L143" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M143" s="2"/>
-      <c r="N143" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P143" s="2"/>
-      <c r="Q143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE143" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF143" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG143" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK143" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AL143" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="144" hidden="true">
-      <c r="A144" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F144" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J144" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="K144" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="L144" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M144" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N144" s="2"/>
-      <c r="O144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P144" s="2"/>
-      <c r="Q144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE144" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AF144" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG144" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL144" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM144" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN144" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="145" hidden="true">
-      <c r="A145" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B145" s="2"/>
-      <c r="C145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D145" s="2"/>
-      <c r="E145" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F145" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N145" s="2"/>
-      <c r="O145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P145" s="2"/>
-      <c r="Q145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="146" hidden="true">
-      <c r="A146" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="B146" s="2"/>
-      <c r="C146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F146" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P146" s="2"/>
-      <c r="Q146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" hidden="true">
-      <c r="A147" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F147" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P147" s="2"/>
-      <c r="Q147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="148" hidden="true">
-      <c r="A148" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B148" s="2"/>
-      <c r="C148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N148" s="2"/>
-      <c r="O148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P148" s="2"/>
-      <c r="Q148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="149" hidden="true">
-      <c r="A149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F149" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P149" s="2"/>
-      <c r="Q149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="150" hidden="true">
-      <c r="A150" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B150" s="2"/>
-      <c r="C150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F150" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P150" s="2"/>
-      <c r="Q150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN150">
+  <autoFilter ref="A1:AN136">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -18942,7 +17313,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI149">
+  <conditionalFormatting sqref="A2:AI135">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
